--- a/core/file/学生考勤信息记录.xlsx
+++ b/core/file/学生考勤信息记录.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>班级</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>晨点</t>
+  </si>
+  <si>
+    <t>晨跑</t>
   </si>
   <si>
     <t>早签</t>
@@ -63,8 +66,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,67 +78,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,9 +93,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +162,36 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -190,36 +201,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,49 +243,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2B9ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,127 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,15 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -502,11 +520,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +563,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -550,28 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -593,137 +620,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -752,6 +779,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,7 +791,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -820,6 +868,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="009669AD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1086,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -1110,10 +1163,12 @@
     <col min="14" max="14" width="9" style="9" customWidth="1"/>
     <col min="15" max="15" width="22.5" style="9" customWidth="1"/>
     <col min="16" max="16" width="16.375" style="10" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="10" customWidth="1"/>
+    <col min="17" max="17" width="9" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.875" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,88 +1181,97 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="13" t="s">
+      <c r="O1" s="17"/>
+      <c r="P1" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="O2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="Q2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P2">
+  <autoFilter ref="A1:R2">
     <extLst/>
   </autoFilter>
   <mergeCells count="10">
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
